--- a/picture/工作簿1.xlsx
+++ b/picture/工作簿1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>name</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Hiragino Sans GB"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -112,6 +118,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Hiragino Sans GB"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -135,6 +147,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Hiragino Sans GB"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -167,6 +185,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Hiragino Sans GB"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -189,48 +213,31 @@
     <t>樋口真嗣、长谷川博己、石原里美</t>
   </si>
   <si>
-    <r>
-      <t>剧情</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>科幻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灾难</t>
-    </r>
+    <t>剧情,科幻,灾难</t>
   </si>
   <si>
     <t>平静的东京湾突然发生海难，当人们还在猜想是否海底火山爆发时，一只巨大的怪兽冒出水面并登陆城区。日本政府主导成立了“巨大不明生物灾害部”，网罗了国家中的奇人异士加盟，研究发现怪兽是受到放射性污染而诞生出来的，命名为哥斯拉；尝试了各种办法均宣告失败的“灾害部”最后不得不决定对哥斯拉采取武装攻击。但是这个巨大的怪兽哥斯拉完成了更恐怖的进化，整个东京将要沦为一片人间地狱，一场人类与怪兽的最终决战即将到来……该片是2017年日本票房突破80亿的日本真人电影，并横扫第40届日本电影学院七项大奖；片中的怪兽也被称为整个哥斯拉系列中“最大版本”。</t>
+  </si>
+  <si>
+    <t>巴霍巴利王2：终结</t>
+  </si>
+  <si>
+    <t>S·S·拉贾穆里</t>
+  </si>
+  <si>
+    <t>帕拉巴斯、拉纳·达格巴帝、安努舒卡·谢蒂</t>
+  </si>
+  <si>
+    <t>动作/奇幻/剧情</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>印度语</t>
+  </si>
+  <si>
+    <t>根据印度神话传说改编而来，讲述勇猛、善良的巴霍巴利王和他的儿子希瓦，对抗邪恶的兄弟巴拉迪瓦，争夺摩西施末底王国控制权的故事</t>
   </si>
 </sst>
 </file>
@@ -239,9 +246,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -265,12 +272,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -280,81 +367,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,48 +396,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,18 +439,6 @@
       <name val="Hiragino Sans GB"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -442,25 +449,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,157 +617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,24 +640,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,17 +654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +682,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -719,17 +721,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,145 +748,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -914,25 +921,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,13 +1343,13 @@
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>43231</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1354,7 +1361,7 @@
       <c r="G3" s="9">
         <v>150</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1371,7 +1378,7 @@
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>43218</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1394,28 +1401,28 @@
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>43203</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="3">
         <v>108</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1423,19 +1430,19 @@
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>43218</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="3">
@@ -1444,7 +1451,7 @@
       <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1452,16 +1459,16 @@
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>43221</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1473,18 +1480,51 @@
       <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" ht="38" customHeight="1"/>
-    <row r="9" ht="38" customHeight="1"/>
+    <row r="8" ht="38" customHeight="1" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43224</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3">
+        <v>141</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="38" customHeight="1" spans="1:1">
+      <c r="A9" s="14"/>
+    </row>
     <row r="10" ht="38" customHeight="1"/>
     <row r="11" ht="38" customHeight="1"/>
     <row r="12" ht="38" customHeight="1"/>
     <row r="13" ht="38" customHeight="1"/>
     <row r="14" ht="38" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="帕拉巴斯、拉纳·达格巴帝、安努舒卡·谢蒂" tooltip="http://people.mtime.com/2146238/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
